--- a/example_data/EPA/label_corrected/084229-00047-20190719.xlsx
+++ b/example_data/EPA/label_corrected/084229-00047-20190719.xlsx
@@ -829,7 +829,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions || Safety Procedures</t>
+          <t>safety procedures || irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G618" t="inlineStr"/>
@@ -17904,7 +17904,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G623" t="inlineStr"/>
@@ -19281,7 +19281,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G674" t="inlineStr"/>
@@ -19324,7 +19324,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G675" t="inlineStr"/>
@@ -19431,7 +19431,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G678" t="inlineStr"/>
@@ -21231,7 +21231,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G731" t="inlineStr"/>
@@ -21840,7 +21840,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G754" t="inlineStr"/>
